--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.6980502352361</v>
+        <v>228.0462839490481</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.4518706475755</v>
+        <v>312.0229863909422</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.5533061507601</v>
+        <v>282.2439504968949</v>
       </c>
       <c r="AD2" t="n">
-        <v>167698.0502352361</v>
+        <v>228046.2839490481</v>
       </c>
       <c r="AE2" t="n">
-        <v>229451.8706475755</v>
+        <v>312022.9863909421</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402751533276436e-06</v>
+        <v>3.463961381734082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>207553.3061507601</v>
+        <v>282243.9504968948</v>
       </c>
     </row>
     <row r="3">
@@ -4458,28 +4458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.5413044248678</v>
+        <v>178.6228920562641</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.4535923743503</v>
+        <v>244.399721197104</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.7541618039461</v>
+        <v>221.0745548232863</v>
       </c>
       <c r="AD3" t="n">
-        <v>135541.3044248678</v>
+        <v>178622.8920562641</v>
       </c>
       <c r="AE3" t="n">
-        <v>185453.5923743503</v>
+        <v>244399.721197104</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.920116066981565e-06</v>
+        <v>4.209827419155623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>167754.1618039461</v>
+        <v>221074.5548232863</v>
       </c>
     </row>
     <row r="4">
@@ -4564,28 +4564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.9803868444476</v>
+        <v>166.1472258218645</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.2671907922541</v>
+        <v>227.3299642676571</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.2080062675736</v>
+        <v>205.6339115376261</v>
       </c>
       <c r="AD4" t="n">
-        <v>122980.3868444476</v>
+        <v>166147.2258218644</v>
       </c>
       <c r="AE4" t="n">
-        <v>168267.1907922541</v>
+        <v>227329.9642676571</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.104163860722369e-06</v>
+        <v>4.475162573907205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>152208.0062675736</v>
+        <v>205633.9115376261</v>
       </c>
     </row>
     <row r="5">
@@ -4670,28 +4670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.8061439700494</v>
+        <v>163.8023907468741</v>
       </c>
       <c r="AB5" t="n">
-        <v>165.2922957706783</v>
+        <v>224.1216574712344</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.5170310515646</v>
+        <v>202.7318010389661</v>
       </c>
       <c r="AD5" t="n">
-        <v>120806.1439700494</v>
+        <v>163802.3907468741</v>
       </c>
       <c r="AE5" t="n">
-        <v>165292.2957706783</v>
+        <v>224121.6574712344</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.211768214450348e-06</v>
+        <v>4.630291941491835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.466145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>149517.0310515646</v>
+        <v>202731.8010389661</v>
       </c>
     </row>
     <row r="6">
@@ -4776,28 +4776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.5826904474604</v>
+        <v>162.578937224285</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.6183126861127</v>
+        <v>222.4476743866688</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.0028105631394</v>
+        <v>201.2175805505409</v>
       </c>
       <c r="AD6" t="n">
-        <v>119582.6904474604</v>
+        <v>162578.937224285</v>
       </c>
       <c r="AE6" t="n">
-        <v>163618.3126861127</v>
+        <v>222447.6743866688</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266947540309988e-06</v>
+        <v>4.709842011984256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>148002.8105631394</v>
+        <v>201217.5805505409</v>
       </c>
     </row>
     <row r="7">
@@ -4882,28 +4882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.5643024321055</v>
+        <v>153.09786312259</v>
       </c>
       <c r="AB7" t="n">
-        <v>162.2249092753964</v>
+        <v>209.4752505252672</v>
       </c>
       <c r="AC7" t="n">
-        <v>146.7423916182875</v>
+        <v>189.483226615556</v>
       </c>
       <c r="AD7" t="n">
-        <v>118564.3024321055</v>
+        <v>153097.86312259</v>
       </c>
       <c r="AE7" t="n">
-        <v>162224.9092753964</v>
+        <v>209475.2505252672</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.320002788905149e-06</v>
+        <v>4.786329875871428e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>146742.3916182875</v>
+        <v>189483.2266155561</v>
       </c>
     </row>
     <row r="8">
@@ -4988,28 +4988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.9879832492943</v>
+        <v>152.5215439397788</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.4363639440666</v>
+        <v>208.6867051939374</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.0291039466492</v>
+        <v>188.7699389439178</v>
       </c>
       <c r="AD8" t="n">
-        <v>117987.9832492943</v>
+        <v>152521.5439397788</v>
       </c>
       <c r="AE8" t="n">
-        <v>161436.3639440666</v>
+        <v>208686.7051939374</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.347125621666952e-06</v>
+        <v>4.825431898676924e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>146029.1039466492</v>
+        <v>188769.9389439178</v>
       </c>
     </row>
     <row r="9">
@@ -5094,28 +5094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.493675239998</v>
+        <v>151.5751733628432</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.4458328664462</v>
+        <v>207.3918392196515</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.2783709227479</v>
+        <v>187.5986531608616</v>
       </c>
       <c r="AD9" t="n">
-        <v>108493.675239998</v>
+        <v>151575.1733628432</v>
       </c>
       <c r="AE9" t="n">
-        <v>148445.8328664462</v>
+        <v>207391.8392196515</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.378893414600527e-06</v>
+        <v>4.871230395267527e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>134278.3709227479</v>
+        <v>187598.6531608616</v>
       </c>
     </row>
     <row r="10">
@@ -5200,28 +5200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>108.1550865985967</v>
+        <v>151.236584721442</v>
       </c>
       <c r="AB10" t="n">
-        <v>147.9825609498046</v>
+        <v>206.9285673030099</v>
       </c>
       <c r="AC10" t="n">
-        <v>133.8593130276242</v>
+        <v>187.1795952657379</v>
       </c>
       <c r="AD10" t="n">
-        <v>108155.0865985967</v>
+        <v>151236.584721442</v>
       </c>
       <c r="AE10" t="n">
-        <v>147982.5609498046</v>
+        <v>206928.5673030099</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.378473267449312e-06</v>
+        <v>4.870624684070885e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>133859.3130276242</v>
+        <v>187179.5952657379</v>
       </c>
     </row>
     <row r="11">
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>107.6966363891188</v>
+        <v>150.7781345119641</v>
       </c>
       <c r="AB11" t="n">
-        <v>147.3552891478014</v>
+        <v>206.3012955010068</v>
       </c>
       <c r="AC11" t="n">
-        <v>133.2919071660225</v>
+        <v>186.6121894041362</v>
       </c>
       <c r="AD11" t="n">
-        <v>107696.6363891188</v>
+        <v>150778.1345119641</v>
       </c>
       <c r="AE11" t="n">
-        <v>147355.2891478014</v>
+        <v>206301.2955010068</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.403378656913032e-06</v>
+        <v>4.906529897782988e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.932291666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>133291.9071660225</v>
+        <v>186612.1894041362</v>
       </c>
     </row>
     <row r="12">
@@ -5412,28 +5412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>107.0779017646495</v>
+        <v>150.1593998874948</v>
       </c>
       <c r="AB12" t="n">
-        <v>146.5087091379578</v>
+        <v>205.4547154911632</v>
       </c>
       <c r="AC12" t="n">
-        <v>132.5261235641356</v>
+        <v>185.8464058022493</v>
       </c>
       <c r="AD12" t="n">
-        <v>107077.9017646495</v>
+        <v>150159.3998874948</v>
       </c>
       <c r="AE12" t="n">
-        <v>146508.7091379578</v>
+        <v>205454.7154911632</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.405852856803524e-06</v>
+        <v>4.910096863718774e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>132526.1235641356</v>
+        <v>185846.4058022493</v>
       </c>
     </row>
     <row r="13">
@@ -5518,28 +5518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>106.3724188895674</v>
+        <v>149.4539170124126</v>
       </c>
       <c r="AB13" t="n">
-        <v>145.543436344563</v>
+        <v>204.4894426977684</v>
       </c>
       <c r="AC13" t="n">
-        <v>131.6529750513732</v>
+        <v>184.973257289487</v>
       </c>
       <c r="AD13" t="n">
-        <v>106372.4188895674</v>
+        <v>149453.9170124126</v>
       </c>
       <c r="AE13" t="n">
-        <v>145543.4363445631</v>
+        <v>204489.4426977684</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.43523981588021e-06</v>
+        <v>4.952462996861734e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>131652.9750513732</v>
+        <v>184973.257289487</v>
       </c>
     </row>
     <row r="14">
@@ -5624,28 +5624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>106.3438630138062</v>
+        <v>149.4253611366514</v>
       </c>
       <c r="AB14" t="n">
-        <v>145.5043649355503</v>
+        <v>204.4503712887557</v>
       </c>
       <c r="AC14" t="n">
-        <v>131.6176325627996</v>
+        <v>184.9379148009133</v>
       </c>
       <c r="AD14" t="n">
-        <v>106343.8630138062</v>
+        <v>149425.3611366515</v>
       </c>
       <c r="AE14" t="n">
-        <v>145504.3649355503</v>
+        <v>204450.3712887557</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.433419178224943e-06</v>
+        <v>4.949838248342949e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>131617.6325627996</v>
+        <v>184937.9148009133</v>
       </c>
     </row>
     <row r="15">
@@ -5730,28 +5730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>105.7701241837099</v>
+        <v>148.8516223065551</v>
       </c>
       <c r="AB15" t="n">
-        <v>144.7193501566422</v>
+        <v>203.6653565098475</v>
       </c>
       <c r="AC15" t="n">
-        <v>130.907538492615</v>
+        <v>184.2278207307288</v>
       </c>
       <c r="AD15" t="n">
-        <v>105770.1241837099</v>
+        <v>148851.6223065551</v>
       </c>
       <c r="AE15" t="n">
-        <v>144719.3501566421</v>
+        <v>203665.3565098475</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.438624334598336e-06</v>
+        <v>4.957342337056913e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>130907.538492615</v>
+        <v>184227.8207307287</v>
       </c>
     </row>
     <row r="16">
@@ -5836,28 +5836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>105.3315262034011</v>
+        <v>148.4130243262464</v>
       </c>
       <c r="AB16" t="n">
-        <v>144.1192410504068</v>
+        <v>203.0652474036121</v>
       </c>
       <c r="AC16" t="n">
-        <v>130.3647029572201</v>
+        <v>183.6849851953339</v>
       </c>
       <c r="AD16" t="n">
-        <v>105331.5262034011</v>
+        <v>148413.0243262464</v>
       </c>
       <c r="AE16" t="n">
-        <v>144119.2410504068</v>
+        <v>203065.2474036121</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.439744727001577e-06</v>
+        <v>4.958957566914626e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>130364.7029572201</v>
+        <v>183684.9851953339</v>
       </c>
     </row>
     <row r="17">
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>105.4464665237195</v>
+        <v>148.5279646465647</v>
       </c>
       <c r="AB17" t="n">
-        <v>144.2765074674753</v>
+        <v>203.2225138206807</v>
       </c>
       <c r="AC17" t="n">
-        <v>130.5069600881685</v>
+        <v>183.8272423262822</v>
       </c>
       <c r="AD17" t="n">
-        <v>105446.4665237195</v>
+        <v>148527.9646465647</v>
       </c>
       <c r="AE17" t="n">
-        <v>144276.5074674753</v>
+        <v>203222.5138206807</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.439184530799956e-06</v>
+        <v>4.958149951985769e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>130506.9600881685</v>
+        <v>183827.2423262822</v>
       </c>
     </row>
   </sheetData>
@@ -6239,28 +6239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.0921999534029</v>
+        <v>194.4261490828283</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.1533048753727</v>
+        <v>266.022434651333</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.3372701645243</v>
+        <v>240.6336268531195</v>
       </c>
       <c r="AD2" t="n">
-        <v>144092.1999534029</v>
+        <v>194426.1490828283</v>
       </c>
       <c r="AE2" t="n">
-        <v>197153.3048753727</v>
+        <v>266022.434651333</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767064027609623e-06</v>
+        <v>4.050877642369261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>178337.2701645243</v>
+        <v>240633.6268531195</v>
       </c>
     </row>
     <row r="3">
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2759371120222</v>
+        <v>159.3630548870368</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.4621110057929</v>
+        <v>218.0475622981322</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.1478323414315</v>
+        <v>197.2374089841367</v>
       </c>
       <c r="AD3" t="n">
-        <v>117275.9371120222</v>
+        <v>159363.0548870368</v>
       </c>
       <c r="AE3" t="n">
-        <v>160462.1110057929</v>
+        <v>218047.5622981322</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.239562032690692e-06</v>
+        <v>4.742596946927764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>145147.8323414315</v>
+        <v>197237.4089841367</v>
       </c>
     </row>
     <row r="4">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.7137467543839</v>
+        <v>156.6302723288063</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.9564091226131</v>
+        <v>214.3084486401055</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.9767097256977</v>
+        <v>193.8551510857519</v>
       </c>
       <c r="AD4" t="n">
-        <v>114713.7467543839</v>
+        <v>156630.2723288063</v>
       </c>
       <c r="AE4" t="n">
-        <v>156956.4091226131</v>
+        <v>214308.4486401055</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.396658926653153e-06</v>
+        <v>4.972580889868159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.2578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>141976.7097256977</v>
+        <v>193855.1510857519</v>
       </c>
     </row>
     <row r="5">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.3676691381412</v>
+        <v>146.3694460585841</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.8004492913461</v>
+        <v>200.2691334614878</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.1717748327079</v>
+        <v>181.1557284434744</v>
       </c>
       <c r="AD5" t="n">
-        <v>104367.6691381412</v>
+        <v>146369.4460585841</v>
       </c>
       <c r="AE5" t="n">
-        <v>142800.4492913461</v>
+        <v>200269.1334614878</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.503434589902768e-06</v>
+        <v>5.128896444076953e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>129171.7748327079</v>
+        <v>181155.7284434744</v>
       </c>
     </row>
     <row r="6">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.2879805262822</v>
+        <v>145.2897574467252</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.3231717001016</v>
+        <v>198.7918558702432</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.8354865413992</v>
+        <v>179.8194401521656</v>
       </c>
       <c r="AD6" t="n">
-        <v>103287.9805262822</v>
+        <v>145289.7574467252</v>
       </c>
       <c r="AE6" t="n">
-        <v>141323.1717001016</v>
+        <v>198791.8558702432</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.563028062743124e-06</v>
+        <v>5.216139046471188e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>127835.4865413992</v>
+        <v>179819.4401521656</v>
       </c>
     </row>
     <row r="7">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.7674509968554</v>
+        <v>144.7692279172984</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.6109602337981</v>
+        <v>198.0796444039398</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.1912475378444</v>
+        <v>179.1752011486109</v>
       </c>
       <c r="AD7" t="n">
-        <v>102767.4509968554</v>
+        <v>144769.2279172984</v>
       </c>
       <c r="AE7" t="n">
-        <v>140610.9602337981</v>
+        <v>198079.6444039398</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.58536354182632e-06</v>
+        <v>5.248837347611653e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>127191.2475378444</v>
+        <v>179175.2011486109</v>
       </c>
     </row>
     <row r="8">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.9980044170128</v>
+        <v>143.9997813374558</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.5581694776707</v>
+        <v>197.0268536478123</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.2389336538804</v>
+        <v>178.2228872646468</v>
       </c>
       <c r="AD8" t="n">
-        <v>101998.0044170128</v>
+        <v>143999.7813374558</v>
       </c>
       <c r="AE8" t="n">
-        <v>139558.1694776707</v>
+        <v>197026.8536478123</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.617599071097745e-06</v>
+        <v>5.296028949798161e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>126238.9336538803</v>
+        <v>178222.8872646468</v>
       </c>
     </row>
     <row r="9">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.3421607958113</v>
+        <v>143.3439377162542</v>
       </c>
       <c r="AB9" t="n">
-        <v>138.6608153013646</v>
+        <v>196.1294994715063</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.4272217007162</v>
+        <v>177.4111753114826</v>
       </c>
       <c r="AD9" t="n">
-        <v>101342.1607958113</v>
+        <v>143343.9377162542</v>
       </c>
       <c r="AE9" t="n">
-        <v>138660.8153013646</v>
+        <v>196129.4994715062</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.63759234318519e-06</v>
+        <v>5.32529834800822e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>125427.2217007162</v>
+        <v>177411.1753114826</v>
       </c>
     </row>
     <row r="10">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.722780161678</v>
+        <v>142.724557082121</v>
       </c>
       <c r="AB10" t="n">
-        <v>137.8133513925989</v>
+        <v>195.2820355627406</v>
       </c>
       <c r="AC10" t="n">
-        <v>124.6606385579797</v>
+        <v>176.6445921687462</v>
       </c>
       <c r="AD10" t="n">
-        <v>100722.780161678</v>
+        <v>142724.557082121</v>
       </c>
       <c r="AE10" t="n">
-        <v>137813.3513925989</v>
+        <v>195282.0355627406</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.647661418620533e-06</v>
+        <v>5.34003909565749e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.619791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>124660.6385579797</v>
+        <v>176644.5921687462</v>
       </c>
     </row>
     <row r="11">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>99.97814472073784</v>
+        <v>133.7331797953211</v>
       </c>
       <c r="AB11" t="n">
-        <v>136.7945083313079</v>
+        <v>182.9796364873769</v>
       </c>
       <c r="AC11" t="n">
-        <v>123.7390324485028</v>
+        <v>165.5163167946058</v>
       </c>
       <c r="AD11" t="n">
-        <v>99978.14472073785</v>
+        <v>133733.1797953211</v>
       </c>
       <c r="AE11" t="n">
-        <v>136794.5083313079</v>
+        <v>182979.6364873769</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.671373246144532e-06</v>
+        <v>5.374752319138502e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>123739.0324485028</v>
+        <v>165516.3167946058</v>
       </c>
     </row>
     <row r="12">
@@ -7299,28 +7299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>100.0434399151899</v>
+        <v>133.7984749897731</v>
       </c>
       <c r="AB12" t="n">
-        <v>136.8838480969777</v>
+        <v>183.0689762530468</v>
       </c>
       <c r="AC12" t="n">
-        <v>123.8198457523263</v>
+        <v>165.5971300984293</v>
       </c>
       <c r="AD12" t="n">
-        <v>100043.4399151899</v>
+        <v>133798.4749897731</v>
       </c>
       <c r="AE12" t="n">
-        <v>136883.8480969777</v>
+        <v>183068.9762530468</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.67122836736129e-06</v>
+        <v>5.374540222050024e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>123819.8457523263</v>
+        <v>165597.1300984293</v>
       </c>
     </row>
   </sheetData>
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.31668733612734</v>
+        <v>130.0677901527544</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.9435202211584</v>
+        <v>177.9644886728413</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.0190860106159</v>
+        <v>160.9798076486836</v>
       </c>
       <c r="AD2" t="n">
-        <v>91316.68733612735</v>
+        <v>130067.7901527544</v>
       </c>
       <c r="AE2" t="n">
-        <v>124943.5202211584</v>
+        <v>177964.4886728413</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.898491167893767e-06</v>
+        <v>6.031447038860908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>113019.0860106159</v>
+        <v>160979.8076486836</v>
       </c>
     </row>
     <row r="3">
@@ -7702,28 +7702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.04992133665006</v>
+        <v>119.0338249275885</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.4737868611313</v>
+        <v>162.8673306675865</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.9759377291583</v>
+        <v>147.3235012144513</v>
       </c>
       <c r="AD3" t="n">
-        <v>88049.92133665006</v>
+        <v>119033.8249275885</v>
       </c>
       <c r="AE3" t="n">
-        <v>120473.7868611313</v>
+        <v>162867.3306675865</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.214381874529285e-06</v>
+        <v>6.520168953336819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.3203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>108975.9377291583</v>
+        <v>147323.5012144513</v>
       </c>
     </row>
     <row r="4">
@@ -7808,28 +7808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.38612139687125</v>
+        <v>117.3700249878096</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.1973023818542</v>
+        <v>160.5908461883094</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.9167177335166</v>
+        <v>145.2642812188095</v>
       </c>
       <c r="AD4" t="n">
-        <v>86386.12139687124</v>
+        <v>117370.0249878096</v>
       </c>
       <c r="AE4" t="n">
-        <v>118197.3023818542</v>
+        <v>160590.8461883094</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320810422056605e-06</v>
+        <v>6.684827053147453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>106916.7177335166</v>
+        <v>145264.2812188095</v>
       </c>
     </row>
     <row r="5">
@@ -7914,28 +7914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.42913663355917</v>
+        <v>117.4130402244976</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.2561577263889</v>
+        <v>160.6497015328441</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.9699560065729</v>
+        <v>145.3175194918659</v>
       </c>
       <c r="AD5" t="n">
-        <v>86429.13663355917</v>
+        <v>117413.0402244976</v>
       </c>
       <c r="AE5" t="n">
-        <v>118256.1577263889</v>
+        <v>160649.7015328441</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.316014401433854e-06</v>
+        <v>6.677407017257252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>106969.9560065729</v>
+        <v>145317.5194918659</v>
       </c>
     </row>
   </sheetData>
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.5773447334137</v>
+        <v>148.6846722921361</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.5603131585751</v>
+        <v>203.4369281348047</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.3819253764702</v>
+        <v>184.0211932391987</v>
       </c>
       <c r="AD2" t="n">
-        <v>108577.3447334137</v>
+        <v>148684.6722921361</v>
       </c>
       <c r="AE2" t="n">
-        <v>148560.3131585751</v>
+        <v>203436.9281348047</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.438263597707299e-06</v>
+        <v>5.196227037119892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>134381.9253764702</v>
+        <v>184021.1932391987</v>
       </c>
     </row>
     <row r="3">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.39358083767853</v>
+        <v>135.4155675418293</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.5217057698253</v>
+        <v>185.2815536238573</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.0648973595524</v>
+        <v>167.5985421903422</v>
       </c>
       <c r="AD3" t="n">
-        <v>95393.58083767853</v>
+        <v>135415.5675418293</v>
       </c>
       <c r="AE3" t="n">
-        <v>130521.7057698253</v>
+        <v>185281.5536238573</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.829446375459465e-06</v>
+        <v>5.787419209694123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>118064.8973595524</v>
+        <v>167598.5421903422</v>
       </c>
     </row>
     <row r="4">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.57412308853148</v>
+        <v>125.5747337894888</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.0322434086328</v>
+        <v>171.8168907369672</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.8130257921289</v>
+        <v>155.4189278315995</v>
       </c>
       <c r="AD4" t="n">
-        <v>93574.12308853147</v>
+        <v>125574.7337894888</v>
       </c>
       <c r="AE4" t="n">
-        <v>128032.2434086328</v>
+        <v>171816.8907369672</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962040221582102e-06</v>
+        <v>5.987807489591449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>115813.0257921289</v>
+        <v>155418.9278315995</v>
       </c>
     </row>
     <row r="5">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.46741573763035</v>
+        <v>124.4680264385877</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.5179975866481</v>
+        <v>170.3026449149826</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.4432974661367</v>
+        <v>154.0491995056073</v>
       </c>
       <c r="AD5" t="n">
-        <v>92467.41573763035</v>
+        <v>124468.0264385877</v>
       </c>
       <c r="AE5" t="n">
-        <v>126517.9975866481</v>
+        <v>170302.6449149826</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.017098630469729e-06</v>
+        <v>6.071016930855193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>114443.2974661367</v>
+        <v>154049.1995056073</v>
       </c>
     </row>
     <row r="6">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.64026304929781</v>
+        <v>123.6408737502551</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.386250787071</v>
+        <v>169.1708981154054</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.4195629926942</v>
+        <v>153.0254650321648</v>
       </c>
       <c r="AD6" t="n">
-        <v>91640.26304929782</v>
+        <v>123640.8737502551</v>
       </c>
       <c r="AE6" t="n">
-        <v>125386.250787071</v>
+        <v>169170.8981154054</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.0655067259243e-06</v>
+        <v>6.144175793539326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>113419.5629926942</v>
+        <v>153025.4650321648</v>
       </c>
     </row>
     <row r="7">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.51372261352383</v>
+        <v>123.5143333144811</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.2131125802751</v>
+        <v>168.9977599086095</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.2629488533538</v>
+        <v>152.8688508928244</v>
       </c>
       <c r="AD7" t="n">
-        <v>91513.72261352383</v>
+        <v>123514.3333144811</v>
       </c>
       <c r="AE7" t="n">
-        <v>125213.112580275</v>
+        <v>168997.7599086095</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.068522565736965e-06</v>
+        <v>6.148733614057986e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>113262.9488533538</v>
+        <v>152868.8508928244</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.76569309148347</v>
+        <v>115.0862804946193</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.9801608861723</v>
+        <v>157.4661262210316</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.9111771104042</v>
+        <v>142.4377801396357</v>
       </c>
       <c r="AD2" t="n">
-        <v>84765.69309148347</v>
+        <v>115086.2804946193</v>
       </c>
       <c r="AE2" t="n">
-        <v>115980.1608861723</v>
+        <v>157466.1262210316</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.282657655867924e-06</v>
+        <v>6.768688991847752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.502604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>104911.1771104042</v>
+        <v>142437.7801396358</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.4372135089518</v>
+        <v>112.5872087114954</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.7942323960849</v>
+        <v>154.0467859560973</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.029309163931</v>
+        <v>139.3447769105115</v>
       </c>
       <c r="AD3" t="n">
-        <v>82437.2135089518</v>
+        <v>112587.2087114954</v>
       </c>
       <c r="AE3" t="n">
-        <v>112794.2323960849</v>
+        <v>154046.7859560973</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.522784453381042e-06</v>
+        <v>7.148206511476647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.059895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>102029.309163931</v>
+        <v>139344.7769105115</v>
       </c>
     </row>
     <row r="4">
@@ -9250,28 +9250,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.58910391710484</v>
+        <v>112.7390991196485</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.0020555534516</v>
+        <v>154.254609113464</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.2172979708404</v>
+        <v>139.5327657174209</v>
       </c>
       <c r="AD4" t="n">
-        <v>82589.10391710483</v>
+        <v>112739.0991196485</v>
       </c>
       <c r="AE4" t="n">
-        <v>113002.0555534516</v>
+        <v>154254.609113464</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.520349884987656e-06</v>
+        <v>7.144358705369235e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.059895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>102217.2979708404</v>
+        <v>139532.7657174209</v>
       </c>
     </row>
   </sheetData>
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.7791159824584</v>
+        <v>198.6242118970997</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.1979060415795</v>
+        <v>271.7664093992765</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9004216755721</v>
+        <v>245.8294047128404</v>
       </c>
       <c r="AD2" t="n">
-        <v>147779.1159824584</v>
+        <v>198624.2118970997</v>
       </c>
       <c r="AE2" t="n">
-        <v>202197.9060415795</v>
+        <v>271766.4093992765</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.667068878112571e-06</v>
+        <v>3.888283148974843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.6796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>182900.4216755721</v>
+        <v>245829.4047128404</v>
       </c>
     </row>
     <row r="3">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.3272028128357</v>
+        <v>161.6981160750367</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.2687432331004</v>
+        <v>221.2424960311812</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.6866035280987</v>
+        <v>200.1274227258223</v>
       </c>
       <c r="AD3" t="n">
-        <v>119327.2028128357</v>
+        <v>161698.1160750367</v>
       </c>
       <c r="AE3" t="n">
-        <v>163268.7432331004</v>
+        <v>221242.4960311812</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.172389352735541e-06</v>
+        <v>4.624982940432399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>147686.6035280987</v>
+        <v>200127.4227258223</v>
       </c>
     </row>
     <row r="4">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.4676247173481</v>
+        <v>158.6679457789569</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.3561423271743</v>
+        <v>217.0964833504083</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.1474157612631</v>
+        <v>196.3770996763356</v>
       </c>
       <c r="AD4" t="n">
-        <v>116467.6247173481</v>
+        <v>158667.945778957</v>
       </c>
       <c r="AE4" t="n">
-        <v>159356.1423271743</v>
+        <v>217096.4833504083</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.336928993002035e-06</v>
+        <v>4.864863025958854e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.3359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>144147.4157612631</v>
+        <v>196377.0996763356</v>
       </c>
     </row>
     <row r="5">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.0267922905147</v>
+        <v>148.9236124088266</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.3847318357413</v>
+        <v>203.7638565437544</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.3641539202398</v>
+        <v>184.3169200596453</v>
       </c>
       <c r="AD5" t="n">
-        <v>115026.7922905147</v>
+        <v>148923.6124088266</v>
       </c>
       <c r="AE5" t="n">
-        <v>157384.7318357413</v>
+        <v>203763.8565437544</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.413910380834687e-06</v>
+        <v>4.977093135781222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>142364.1539202398</v>
+        <v>184316.9200596453</v>
       </c>
     </row>
     <row r="6">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.5786671626912</v>
+        <v>147.8642395703207</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.457390213997</v>
+        <v>202.3143758898802</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.6705796392327</v>
+        <v>183.0057758050175</v>
       </c>
       <c r="AD6" t="n">
-        <v>105578.6671626912</v>
+        <v>147864.2395703207</v>
       </c>
       <c r="AE6" t="n">
-        <v>144457.390213997</v>
+        <v>202314.3758898802</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.462750608551951e-06</v>
+        <v>5.04829663411739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>130670.5796392327</v>
+        <v>183005.7758050175</v>
       </c>
     </row>
     <row r="7">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.4200225458457</v>
+        <v>146.7055949534752</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.8720815334368</v>
+        <v>200.7290672093201</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.23657059415</v>
+        <v>181.5717667599348</v>
       </c>
       <c r="AD7" t="n">
-        <v>104420.0225458457</v>
+        <v>146705.5949534752</v>
       </c>
       <c r="AE7" t="n">
-        <v>142872.0815334368</v>
+        <v>200729.0672093201</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.524225642851634e-06</v>
+        <v>5.137920243733077e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>129236.57059415</v>
+        <v>181571.7667599348</v>
       </c>
     </row>
     <row r="8">
@@ -10183,28 +10183,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.7124571573468</v>
+        <v>145.9980295649763</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.9039593533113</v>
+        <v>199.7609450291945</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.3608446361273</v>
+        <v>180.6960408019121</v>
       </c>
       <c r="AD8" t="n">
-        <v>103712.4571573468</v>
+        <v>145998.0295649763</v>
       </c>
       <c r="AE8" t="n">
-        <v>141903.9593533112</v>
+        <v>199760.9450291945</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.550667804354612e-06</v>
+        <v>5.176469908437371e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>128360.8446361273</v>
+        <v>180696.0408019121</v>
       </c>
     </row>
     <row r="9">
@@ -10289,28 +10289,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>103.3723779126989</v>
+        <v>145.6579503203283</v>
       </c>
       <c r="AB9" t="n">
-        <v>141.4386479275467</v>
+        <v>199.29563360343</v>
       </c>
       <c r="AC9" t="n">
-        <v>127.9399418797689</v>
+        <v>180.2751380455537</v>
       </c>
       <c r="AD9" t="n">
-        <v>103372.3779126989</v>
+        <v>145657.9503203283</v>
       </c>
       <c r="AE9" t="n">
-        <v>141438.6479275467</v>
+        <v>199295.63360343</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.550524227007085e-06</v>
+        <v>5.176260588991015e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>127939.9418797689</v>
+        <v>180275.1380455537</v>
       </c>
     </row>
     <row r="10">
@@ -10395,28 +10395,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>102.860526547458</v>
+        <v>145.1460989550874</v>
       </c>
       <c r="AB10" t="n">
-        <v>140.738310308336</v>
+        <v>198.5952959842192</v>
       </c>
       <c r="AC10" t="n">
-        <v>127.3064435000054</v>
+        <v>179.6416396657902</v>
       </c>
       <c r="AD10" t="n">
-        <v>102860.526547458</v>
+        <v>145146.0989550874</v>
       </c>
       <c r="AE10" t="n">
-        <v>140738.310308336</v>
+        <v>198595.2959842192</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.575865628845686e-06</v>
+        <v>5.21320547127323e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH10" t="n">
-        <v>127306.4435000054</v>
+        <v>179641.6396657902</v>
       </c>
     </row>
     <row r="11">
@@ -10501,28 +10501,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.1200117700505</v>
+        <v>144.4055841776799</v>
       </c>
       <c r="AB11" t="n">
-        <v>139.7251053206812</v>
+        <v>197.5820909965645</v>
       </c>
       <c r="AC11" t="n">
-        <v>126.3899373743299</v>
+        <v>178.7251335401147</v>
       </c>
       <c r="AD11" t="n">
-        <v>102120.0117700504</v>
+        <v>144405.5841776799</v>
       </c>
       <c r="AE11" t="n">
-        <v>139725.1053206812</v>
+        <v>197582.0909965645</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.57825858463781e-06</v>
+        <v>5.216694128712533e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>126389.9373743299</v>
+        <v>178725.1335401147</v>
       </c>
     </row>
     <row r="12">
@@ -10607,28 +10607,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>101.5843486289106</v>
+        <v>143.8699210365401</v>
       </c>
       <c r="AB12" t="n">
-        <v>138.9921873791841</v>
+        <v>196.8491730550673</v>
       </c>
       <c r="AC12" t="n">
-        <v>125.7269680925123</v>
+        <v>178.0621642582971</v>
       </c>
       <c r="AD12" t="n">
-        <v>101584.3486289106</v>
+        <v>143869.9210365401</v>
       </c>
       <c r="AE12" t="n">
-        <v>138992.1873791841</v>
+        <v>196849.1730550673</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.611401022358737e-06</v>
+        <v>5.265012034246875e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.6328125</v>
       </c>
       <c r="AH12" t="n">
-        <v>125726.9680925123</v>
+        <v>178062.1642582971</v>
       </c>
     </row>
     <row r="13">
@@ -10713,28 +10713,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.6433089438263</v>
+        <v>143.9288813514557</v>
       </c>
       <c r="AB13" t="n">
-        <v>139.0728594831972</v>
+        <v>196.9298451590805</v>
       </c>
       <c r="AC13" t="n">
-        <v>125.7999409641425</v>
+        <v>178.1351371299272</v>
       </c>
       <c r="AD13" t="n">
-        <v>101643.3089438263</v>
+        <v>143928.8813514558</v>
       </c>
       <c r="AE13" t="n">
-        <v>139072.8594831972</v>
+        <v>196929.8451590805</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.605657928457637e-06</v>
+        <v>5.256639256392549e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>125799.9409641425</v>
+        <v>178135.1371299273</v>
       </c>
     </row>
   </sheetData>
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.15626201834975</v>
+        <v>110.812458596504</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0415780550527</v>
+        <v>151.618494552318</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4439256933405</v>
+        <v>137.1482382301797</v>
       </c>
       <c r="AD2" t="n">
-        <v>81156.26201834975</v>
+        <v>110812.458596504</v>
       </c>
       <c r="AE2" t="n">
-        <v>111041.5780550527</v>
+        <v>151618.494552318</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.511463794939524e-06</v>
+        <v>7.228424731862804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.268229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>100443.9256933405</v>
+        <v>137148.2382301797</v>
       </c>
     </row>
     <row r="3">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.21830046923803</v>
+        <v>109.8744970473922</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.7582176836155</v>
+        <v>150.3351341808809</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.28304743454535</v>
+        <v>135.9873599713846</v>
       </c>
       <c r="AD3" t="n">
-        <v>80218.30046923803</v>
+        <v>109874.4970473922</v>
       </c>
       <c r="AE3" t="n">
-        <v>109758.2176836155</v>
+        <v>150335.1341808809</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.632286886638829e-06</v>
+        <v>7.422011705828774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>99283.04743454535</v>
+        <v>135987.3599713846</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.0407915408298</v>
+        <v>167.2921965052654</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.4545715133685</v>
+        <v>228.8965636692271</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9957492496919</v>
+        <v>207.0509968910468</v>
       </c>
       <c r="AD2" t="n">
-        <v>126040.7915408298</v>
+        <v>167292.1965052654</v>
       </c>
       <c r="AE2" t="n">
-        <v>172454.5715133685</v>
+        <v>228896.5636692271</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.074141852272558e-06</v>
+        <v>4.564618616357904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155995.7492496919</v>
+        <v>207050.9968910468</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.3999277651371</v>
+        <v>143.3328685615793</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.0540516692664</v>
+        <v>196.1143541657435</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.6376649836858</v>
+        <v>177.3974754524452</v>
       </c>
       <c r="AD3" t="n">
-        <v>110399.9277651371</v>
+        <v>143332.8685615794</v>
       </c>
       <c r="AE3" t="n">
-        <v>151054.0516692664</v>
+        <v>196114.3541657435</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.518867060064479e-06</v>
+        <v>5.224965815739728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>136637.6649836858</v>
+        <v>177397.4754524452</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.0559714971367</v>
+        <v>141.1366947524291</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.9009943602518</v>
+        <v>193.1094522717151</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.8353556002984</v>
+        <v>174.6793571777757</v>
       </c>
       <c r="AD4" t="n">
-        <v>100055.9714971367</v>
+        <v>141136.6947524291</v>
       </c>
       <c r="AE4" t="n">
-        <v>136900.9943602518</v>
+        <v>193109.4522717151</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.659628708402289e-06</v>
+        <v>5.433974791690857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>123835.3556002984</v>
+        <v>174679.3571777757</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.85477847428376</v>
+        <v>139.9355017295761</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.2574690734891</v>
+        <v>191.4659269849524</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.3486860602016</v>
+        <v>173.1926876376789</v>
       </c>
       <c r="AD5" t="n">
-        <v>98854.77847428377</v>
+        <v>139935.5017295761</v>
       </c>
       <c r="AE5" t="n">
-        <v>135257.4690734891</v>
+        <v>191465.9269849524</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.735955455857291e-06</v>
+        <v>5.547308043408435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>122348.6860602016</v>
+        <v>173192.6876376789</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.70031605514882</v>
+        <v>130.7185081976116</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.6778826603421</v>
+        <v>178.8548298094684</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.9198531573614</v>
+        <v>161.785175876833</v>
       </c>
       <c r="AD6" t="n">
-        <v>97700.31605514881</v>
+        <v>130718.5081976116</v>
       </c>
       <c r="AE6" t="n">
-        <v>133677.8826603421</v>
+        <v>178854.8298094684</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.795812742160008e-06</v>
+        <v>5.636186727773655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.528645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>120919.8531573614</v>
+        <v>161785.175876833</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.97281006745115</v>
+        <v>129.8204100093217</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.6824768726756</v>
+        <v>177.6260122469551</v>
       </c>
       <c r="AC7" t="n">
-        <v>120.0194475010087</v>
+        <v>160.6736349378293</v>
       </c>
       <c r="AD7" t="n">
-        <v>96972.81006745115</v>
+        <v>129820.4100093217</v>
       </c>
       <c r="AE7" t="n">
-        <v>132682.4768726756</v>
+        <v>177626.0122469551</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.826462857174532e-06</v>
+        <v>5.681697342544208e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>120019.4475010087</v>
+        <v>160673.6349378293</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.31154666408274</v>
+        <v>129.1591466059533</v>
       </c>
       <c r="AB8" t="n">
-        <v>131.777707111305</v>
+        <v>176.7212424855845</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.2010276958106</v>
+        <v>159.8552151326313</v>
       </c>
       <c r="AD8" t="n">
-        <v>96311.54666408274</v>
+        <v>129159.1466059533</v>
       </c>
       <c r="AE8" t="n">
-        <v>131777.707111305</v>
+        <v>176721.2424855845</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.848330918130512e-06</v>
+        <v>5.714167984089108e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>119201.0276958106</v>
+        <v>159855.2151326313</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.04021885684757</v>
+        <v>128.8878187987181</v>
       </c>
       <c r="AB9" t="n">
-        <v>131.406464435308</v>
+        <v>176.3499998095875</v>
       </c>
       <c r="AC9" t="n">
-        <v>118.8652158997683</v>
+        <v>159.5194033365889</v>
       </c>
       <c r="AD9" t="n">
-        <v>96040.21885684757</v>
+        <v>128887.8187987181</v>
       </c>
       <c r="AE9" t="n">
-        <v>131406.4644353079</v>
+        <v>176349.9998095875</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.845668935738829e-06</v>
+        <v>5.710215357643937e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.424479166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>118865.2158997683</v>
+        <v>159519.4033365889</v>
       </c>
     </row>
   </sheetData>
@@ -12452,28 +12452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.7894324245754</v>
+        <v>182.5820525413594</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.6343126346133</v>
+        <v>249.816819238642</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.2495642007761</v>
+        <v>225.9746526306865</v>
       </c>
       <c r="AD2" t="n">
-        <v>140789.4324245754</v>
+        <v>182582.0525413594</v>
       </c>
       <c r="AE2" t="n">
-        <v>192634.3126346133</v>
+        <v>249816.819238642</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864938501700761e-06</v>
+        <v>4.212727273030387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174249.5642007761</v>
+        <v>225974.6526306865</v>
       </c>
     </row>
     <row r="3">
@@ -12558,28 +12558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.1727548698842</v>
+        <v>156.9652854781171</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.5844442762491</v>
+        <v>214.7668284107293</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.5448060857237</v>
+        <v>194.2697837344076</v>
       </c>
       <c r="AD3" t="n">
-        <v>115172.7548698842</v>
+        <v>156965.2854781171</v>
       </c>
       <c r="AE3" t="n">
-        <v>157584.4442762491</v>
+        <v>214766.8284107293</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.320571269574962e-06</v>
+        <v>4.882709049801684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.557291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>142544.8060857237</v>
+        <v>194269.7837344076</v>
       </c>
     </row>
     <row r="4">
@@ -12664,28 +12664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.4092894937485</v>
+        <v>145.8434034888859</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.8033490331341</v>
+        <v>199.5493788102667</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.12457326581</v>
+        <v>180.5046661659836</v>
       </c>
       <c r="AD4" t="n">
-        <v>112409.2894937485</v>
+        <v>145843.4034888859</v>
       </c>
       <c r="AE4" t="n">
-        <v>153803.3490331341</v>
+        <v>199549.3788102667</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.493907702934338e-06</v>
+        <v>5.137590304596285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>139124.57326581</v>
+        <v>180504.6661659836</v>
       </c>
     </row>
     <row r="5">
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.6029752382661</v>
+        <v>144.3101649919274</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.3859172447379</v>
+        <v>197.4515342570206</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.9876823358103</v>
+        <v>178.6070369525553</v>
       </c>
       <c r="AD5" t="n">
-        <v>102602.9752382661</v>
+        <v>144310.1649919274</v>
       </c>
       <c r="AE5" t="n">
-        <v>140385.9172447379</v>
+        <v>197451.5342570206</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.572275953989096e-06</v>
+        <v>5.252826309963271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>126987.6823358103</v>
+        <v>178607.0369525553</v>
       </c>
     </row>
     <row r="6">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.5614213822333</v>
+        <v>143.2686111358947</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.9608173088015</v>
+        <v>196.0264343210842</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.6985919376189</v>
+        <v>177.3179465543639</v>
       </c>
       <c r="AD6" t="n">
-        <v>101561.4213822333</v>
+        <v>143268.6111358947</v>
       </c>
       <c r="AE6" t="n">
-        <v>138960.8173088015</v>
+        <v>196026.4343210842</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.624513329419998e-06</v>
+        <v>5.329638365795761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>125698.5919376189</v>
+        <v>177317.9465543639</v>
       </c>
     </row>
     <row r="7">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.9890207060928</v>
+        <v>142.6962104597541</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.1776334511708</v>
+        <v>195.2432504634535</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.9901540481547</v>
+        <v>176.6095086648998</v>
       </c>
       <c r="AD7" t="n">
-        <v>100989.0207060928</v>
+        <v>142696.2104597541</v>
       </c>
       <c r="AE7" t="n">
-        <v>138177.6334511708</v>
+        <v>195243.2504634535</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.648474757347472e-06</v>
+        <v>5.364872267281219e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>124990.1540481547</v>
+        <v>176609.5086648998</v>
       </c>
     </row>
     <row r="8">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.1838121351231</v>
+        <v>141.8910018887845</v>
       </c>
       <c r="AB8" t="n">
-        <v>137.0759115610757</v>
+        <v>194.1415285733584</v>
       </c>
       <c r="AC8" t="n">
-        <v>123.9935789489735</v>
+        <v>175.6129335657186</v>
       </c>
       <c r="AD8" t="n">
-        <v>100183.8121351232</v>
+        <v>141891.0018887845</v>
       </c>
       <c r="AE8" t="n">
-        <v>137075.9115610757</v>
+        <v>194141.5285733583</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.680455829006522e-06</v>
+        <v>5.411898593577172e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.619791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>123993.5789489735</v>
+        <v>175612.9335657186</v>
       </c>
     </row>
     <row r="9">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.58027338705872</v>
+        <v>133.0996387282167</v>
       </c>
       <c r="AB9" t="n">
-        <v>136.250123219724</v>
+        <v>182.1127976495058</v>
       </c>
       <c r="AC9" t="n">
-        <v>123.246602687919</v>
+        <v>164.7322078388048</v>
       </c>
       <c r="AD9" t="n">
-        <v>99580.27338705873</v>
+        <v>133099.6387282167</v>
       </c>
       <c r="AE9" t="n">
-        <v>136250.123219724</v>
+        <v>182112.7976495058</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.70843926670819e-06</v>
+        <v>5.453046629086129e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.5546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>123246.602687919</v>
+        <v>164732.2078388048</v>
       </c>
     </row>
     <row r="10">
@@ -13300,28 +13300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.87790538774156</v>
+        <v>132.3972707288995</v>
       </c>
       <c r="AB10" t="n">
-        <v>135.2891123367695</v>
+        <v>181.1517867665513</v>
       </c>
       <c r="AC10" t="n">
-        <v>122.3773093348461</v>
+        <v>163.862914485732</v>
       </c>
       <c r="AD10" t="n">
-        <v>98877.90538774156</v>
+        <v>132397.2707288995</v>
       </c>
       <c r="AE10" t="n">
-        <v>135289.1123367695</v>
+        <v>181151.7867665513</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.706732959531259e-06</v>
+        <v>5.450537602530706e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>122377.3093348461</v>
+        <v>163862.914485732</v>
       </c>
     </row>
     <row r="11">
@@ -13406,28 +13406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>98.38673878597203</v>
+        <v>131.7355119265378</v>
       </c>
       <c r="AB11" t="n">
-        <v>134.6170765234876</v>
+        <v>180.2463391784225</v>
       </c>
       <c r="AC11" t="n">
-        <v>121.7694116763754</v>
+        <v>163.0438815446103</v>
       </c>
       <c r="AD11" t="n">
-        <v>98386.73878597203</v>
+        <v>131735.5119265378</v>
       </c>
       <c r="AE11" t="n">
-        <v>134617.0765234876</v>
+        <v>180246.3391784226</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.738153387403602e-06</v>
+        <v>5.496739534387018e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>121769.4116763754</v>
+        <v>163043.8815446103</v>
       </c>
     </row>
   </sheetData>
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.7362202250945</v>
+        <v>215.1429401290483</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.0311200440981</v>
+        <v>294.3680621210739</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.6499043768056</v>
+        <v>266.2739874204954</v>
       </c>
       <c r="AD2" t="n">
-        <v>163736.2202250945</v>
+        <v>215142.9401290483</v>
       </c>
       <c r="AE2" t="n">
-        <v>224031.1200440981</v>
+        <v>294368.0621210739</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.488143764056039e-06</v>
+        <v>3.599777990467346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>202649.9043768056</v>
+        <v>266273.9874204954</v>
       </c>
     </row>
     <row r="3">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.1282321059652</v>
+        <v>175.9529568015899</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.151920370392</v>
+        <v>240.7465979924303</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.7675967421188</v>
+        <v>217.7700805700749</v>
       </c>
       <c r="AD3" t="n">
-        <v>133128.2321059652</v>
+        <v>175952.9568015899</v>
       </c>
       <c r="AE3" t="n">
-        <v>182151.920370392</v>
+        <v>240746.5979924303</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.99646839169836e-06</v>
+        <v>4.335208086201204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>164767.5967421188</v>
+        <v>217770.0805700749</v>
       </c>
     </row>
     <row r="4">
@@ -13915,28 +13915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.4966477574726</v>
+        <v>163.4066237991179</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.8688293986216</v>
+        <v>223.5801516733091</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.1339797157181</v>
+        <v>202.2419757943865</v>
       </c>
       <c r="AD4" t="n">
-        <v>120496.6477574726</v>
+        <v>163406.6237991179</v>
       </c>
       <c r="AE4" t="n">
-        <v>164868.8293986216</v>
+        <v>223580.1516733091</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.193727992631163e-06</v>
+        <v>4.620597853506581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>149133.9797157181</v>
+        <v>202241.9757943865</v>
       </c>
     </row>
     <row r="5">
@@ -14021,28 +14021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.4731459730878</v>
+        <v>161.2125298141409</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.1001849866294</v>
+        <v>220.5780954864701</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.6295708405887</v>
+        <v>199.526431636606</v>
       </c>
       <c r="AD5" t="n">
-        <v>118473.1459730878</v>
+        <v>161212.5298141409</v>
       </c>
       <c r="AE5" t="n">
-        <v>162100.1849866294</v>
+        <v>220578.0954864701</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.299369167271942e-06</v>
+        <v>4.773436600548702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>146629.5708405887</v>
+        <v>199526.4316366061</v>
       </c>
     </row>
     <row r="6">
@@ -14127,28 +14127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.6618117807859</v>
+        <v>151.9898821226532</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.9900817511841</v>
+        <v>207.9592620404825</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.6254142998942</v>
+        <v>188.1119219440555</v>
       </c>
       <c r="AD6" t="n">
-        <v>117661.8117807859</v>
+        <v>151989.8821226532</v>
       </c>
       <c r="AE6" t="n">
-        <v>160990.081751184</v>
+        <v>207959.2620404825</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.344166672063934e-06</v>
+        <v>4.838248398848969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>145625.4142998942</v>
+        <v>188111.9219440555</v>
       </c>
     </row>
     <row r="7">
@@ -14233,28 +14233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.8243423409262</v>
+        <v>151.1524126827935</v>
       </c>
       <c r="AB7" t="n">
-        <v>159.8442191170244</v>
+        <v>206.8133994063229</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.5889111873101</v>
+        <v>187.0754188314715</v>
       </c>
       <c r="AD7" t="n">
-        <v>116824.3423409262</v>
+        <v>151152.4126827935</v>
       </c>
       <c r="AE7" t="n">
-        <v>159844.2191170244</v>
+        <v>206813.3994063229</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.376564867493856e-06</v>
+        <v>4.885121217262555e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>144588.9111873102</v>
+        <v>187075.4188314715</v>
       </c>
     </row>
     <row r="8">
@@ -14339,28 +14339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.5636120114777</v>
+        <v>150.3882471985513</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.1732793256916</v>
+        <v>205.7678344781815</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.1272681058823</v>
+        <v>186.1296411526119</v>
       </c>
       <c r="AD8" t="n">
-        <v>107563.6120114777</v>
+        <v>150388.2471985513</v>
       </c>
       <c r="AE8" t="n">
-        <v>147173.2793256916</v>
+        <v>205767.8344781815</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.402610475584578e-06</v>
+        <v>4.922803286967594e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>133127.2681058823</v>
+        <v>186129.6411526119</v>
       </c>
     </row>
     <row r="9">
@@ -14445,28 +14445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>106.7688319993483</v>
+        <v>149.593467186422</v>
       </c>
       <c r="AB9" t="n">
-        <v>146.0858262498772</v>
+        <v>204.6803814023671</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.1436000253734</v>
+        <v>185.145973072103</v>
       </c>
       <c r="AD9" t="n">
-        <v>106768.8319993483</v>
+        <v>149593.467186422</v>
       </c>
       <c r="AE9" t="n">
-        <v>146085.8262498772</v>
+        <v>204680.3814023671</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.436702694304954e-06</v>
+        <v>4.972126971703459e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>132143.6000253734</v>
+        <v>185145.973072103</v>
       </c>
     </row>
     <row r="10">
@@ -14551,28 +14551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.1373004219623</v>
+        <v>148.9619356090359</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.2217368844912</v>
+        <v>203.8162920369811</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.3619781362625</v>
+        <v>184.3643511829921</v>
       </c>
       <c r="AD10" t="n">
-        <v>106137.3004219623</v>
+        <v>148961.935609036</v>
       </c>
       <c r="AE10" t="n">
-        <v>145221.7368844912</v>
+        <v>203816.2920369811</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.459030862397181e-06</v>
+        <v>5.004430751423498e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>131361.9781362625</v>
+        <v>184364.3511829921</v>
       </c>
     </row>
     <row r="11">
@@ -14657,28 +14657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>105.9093354872829</v>
+        <v>148.7339706743566</v>
       </c>
       <c r="AB11" t="n">
-        <v>144.90982520376</v>
+        <v>203.5043803562499</v>
       </c>
       <c r="AC11" t="n">
-        <v>131.0798348685694</v>
+        <v>184.082207915299</v>
       </c>
       <c r="AD11" t="n">
-        <v>105909.3354872829</v>
+        <v>148733.9706743566</v>
       </c>
       <c r="AE11" t="n">
-        <v>144909.82520376</v>
+        <v>203504.3803562499</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.460583717080096e-06</v>
+        <v>5.006677378885586e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>131079.8348685694</v>
+        <v>184082.207915299</v>
       </c>
     </row>
     <row r="12">
@@ -14763,28 +14763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>105.3234876247164</v>
+        <v>148.1481228117901</v>
       </c>
       <c r="AB12" t="n">
-        <v>144.1082423124133</v>
+        <v>202.7027974649032</v>
       </c>
       <c r="AC12" t="n">
-        <v>130.3547539233439</v>
+        <v>183.3571269700735</v>
       </c>
       <c r="AD12" t="n">
-        <v>105323.4876247164</v>
+        <v>148148.1228117901</v>
       </c>
       <c r="AE12" t="n">
-        <v>144108.2423124133</v>
+        <v>202702.7974649032</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.459454368219794e-06</v>
+        <v>5.005043468004068e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>130354.7539233439</v>
+        <v>183357.1269700735</v>
       </c>
     </row>
     <row r="13">
@@ -14869,28 +14869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>104.777459378995</v>
+        <v>147.6020945660686</v>
       </c>
       <c r="AB13" t="n">
-        <v>143.3611423775515</v>
+        <v>201.9556975300414</v>
       </c>
       <c r="AC13" t="n">
-        <v>129.6789561577037</v>
+        <v>182.6813292044333</v>
       </c>
       <c r="AD13" t="n">
-        <v>104777.459378995</v>
+        <v>147602.0945660686</v>
       </c>
       <c r="AE13" t="n">
-        <v>143361.1423775515</v>
+        <v>201955.6975300414</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.494558295294191e-06</v>
+        <v>5.055830864571294e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>129678.9561577037</v>
+        <v>182681.3292044333</v>
       </c>
     </row>
     <row r="14">
@@ -14975,28 +14975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>104.397144917811</v>
+        <v>147.2217801048847</v>
       </c>
       <c r="AB14" t="n">
-        <v>142.84077935347</v>
+        <v>201.4353345059599</v>
       </c>
       <c r="AC14" t="n">
-        <v>129.2082558503064</v>
+        <v>182.210628897036</v>
       </c>
       <c r="AD14" t="n">
-        <v>104397.144917811</v>
+        <v>147221.7801048847</v>
       </c>
       <c r="AE14" t="n">
-        <v>142840.77935347</v>
+        <v>201435.3345059599</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.495287666433136e-06</v>
+        <v>5.056886098682275e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>129208.2558503064</v>
+        <v>182210.628897036</v>
       </c>
     </row>
     <row r="15">
@@ -15081,28 +15081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>104.2583712517484</v>
+        <v>147.0830064388221</v>
       </c>
       <c r="AB15" t="n">
-        <v>142.6509031013011</v>
+        <v>201.2454582537911</v>
       </c>
       <c r="AC15" t="n">
-        <v>129.0365011211514</v>
+        <v>182.038874167881</v>
       </c>
       <c r="AD15" t="n">
-        <v>104258.3712517484</v>
+        <v>147083.0064388221</v>
       </c>
       <c r="AE15" t="n">
-        <v>142650.9031013011</v>
+        <v>201245.4582537911</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.492840743902481e-06</v>
+        <v>5.053345958438983e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>129036.5011211514</v>
+        <v>182038.874167881</v>
       </c>
     </row>
   </sheetData>
@@ -15378,28 +15378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.5029903732132</v>
+        <v>159.9071640632629</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.5633105933231</v>
+        <v>218.7920364774471</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.0028823542892</v>
+        <v>197.9108315926542</v>
       </c>
       <c r="AD2" t="n">
-        <v>111502.9903732132</v>
+        <v>159907.1640632629</v>
       </c>
       <c r="AE2" t="n">
-        <v>152563.3105933231</v>
+        <v>218792.0364774471</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.314289241180893e-06</v>
+        <v>4.977017159942458e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>138002.8823542892</v>
+        <v>197910.8315926542</v>
       </c>
     </row>
     <row r="3">
@@ -15484,28 +15484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.58136067959663</v>
+        <v>137.9750659910192</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.5151226675709</v>
+        <v>188.7835723191394</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.7726267498651</v>
+        <v>170.7663331364618</v>
       </c>
       <c r="AD3" t="n">
-        <v>97581.36067959663</v>
+        <v>137975.0659910192</v>
       </c>
       <c r="AE3" t="n">
-        <v>133515.1226675709</v>
+        <v>188783.5723191394</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.726920898903794e-06</v>
+        <v>5.596659771608617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>120772.6267498651</v>
+        <v>170766.3331364618</v>
       </c>
     </row>
     <row r="4">
@@ -15590,28 +15590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.87766432818015</v>
+        <v>136.2713696396027</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.1840501577856</v>
+        <v>186.4524998093542</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.6640285287322</v>
+        <v>168.6577349153289</v>
       </c>
       <c r="AD4" t="n">
-        <v>95877.66432818015</v>
+        <v>136271.3696396027</v>
       </c>
       <c r="AE4" t="n">
-        <v>131184.0501577856</v>
+        <v>186452.4998093542</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.847241042390078e-06</v>
+        <v>5.777342679840431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.619791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>118664.0285287322</v>
+        <v>168657.7349153289</v>
       </c>
     </row>
     <row r="5">
@@ -15696,28 +15696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.53153876439337</v>
+        <v>126.8295243511681</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.342221774545</v>
+        <v>173.5337505409086</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.9979816613651</v>
+        <v>156.9719329454812</v>
       </c>
       <c r="AD5" t="n">
-        <v>94531.53876439338</v>
+        <v>126829.5243511681</v>
       </c>
       <c r="AE5" t="n">
-        <v>129342.221774545</v>
+        <v>173533.7505409086</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.931085881113121e-06</v>
+        <v>5.903251184117055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>116997.9816613651</v>
+        <v>156971.9329454812</v>
       </c>
     </row>
     <row r="6">
@@ -15802,28 +15802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.46604485884168</v>
+        <v>125.7640304456164</v>
       </c>
       <c r="AB6" t="n">
-        <v>127.8843660066963</v>
+        <v>172.07589477306</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.679261601886</v>
+        <v>155.6532128860021</v>
       </c>
       <c r="AD6" t="n">
-        <v>93466.04485884169</v>
+        <v>125764.0304456164</v>
       </c>
       <c r="AE6" t="n">
-        <v>127884.3660066963</v>
+        <v>172075.89477306</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.985455211869775e-06</v>
+        <v>5.984896771589691e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.3203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>115679.261601886</v>
+        <v>155653.2128860021</v>
       </c>
     </row>
     <row r="7">
@@ -15908,28 +15908,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.97136323433953</v>
+        <v>125.2693488211142</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.2075207842397</v>
+        <v>171.3990495506034</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.0670135375022</v>
+        <v>155.0409648216184</v>
       </c>
       <c r="AD7" t="n">
-        <v>92971.36323433953</v>
+        <v>125269.3488211143</v>
       </c>
       <c r="AE7" t="n">
-        <v>127207.5207842398</v>
+        <v>171399.0495506034</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.98130624140473e-06</v>
+        <v>5.978666326478248e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.3203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>115067.0135375023</v>
+        <v>155040.9648216184</v>
       </c>
     </row>
     <row r="8">
@@ -16014,28 +16014,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.81464303639115</v>
+        <v>125.1126286231659</v>
       </c>
       <c r="AB8" t="n">
-        <v>126.9930892953997</v>
+        <v>171.1846180617634</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.8730470890006</v>
+        <v>154.8469983731167</v>
       </c>
       <c r="AD8" t="n">
-        <v>92814.64303639115</v>
+        <v>125112.6286231659</v>
       </c>
       <c r="AE8" t="n">
-        <v>126993.0892953997</v>
+        <v>171184.6180617634</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.007421846908628e-06</v>
+        <v>6.017883729449655e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.268229166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>114873.0470890006</v>
+        <v>154846.9983731167</v>
       </c>
     </row>
   </sheetData>
@@ -16311,28 +16311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.1314978001217</v>
+        <v>133.564355276994</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.7408210137525</v>
+        <v>182.7486433333898</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.4041531837116</v>
+        <v>165.3073693030342</v>
       </c>
       <c r="AD2" t="n">
-        <v>102131.4978001217</v>
+        <v>133564.355276994</v>
       </c>
       <c r="AE2" t="n">
-        <v>139740.8210137525</v>
+        <v>182748.6433333898</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.748954630577325e-06</v>
+        <v>5.749946976353068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>126404.1531837116</v>
+        <v>165307.3693030342</v>
       </c>
     </row>
     <row r="3">
@@ -16417,28 +16417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.47769821562748</v>
+        <v>121.8252148379282</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.7955782929033</v>
+        <v>166.686633490343</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.9807020488465</v>
+        <v>150.7782951362303</v>
       </c>
       <c r="AD3" t="n">
-        <v>90477.69821562749</v>
+        <v>121825.2148379282</v>
       </c>
       <c r="AE3" t="n">
-        <v>123795.5782929033</v>
+        <v>166686.633490343</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087517371857599e-06</v>
+        <v>6.269216480084173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.450520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>111980.7020488465</v>
+        <v>150778.2951362303</v>
       </c>
     </row>
     <row r="4">
@@ -16523,28 +16523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.11354566778954</v>
+        <v>120.4610622900903</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.9290845947895</v>
+        <v>164.8201397922291</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.2923438896397</v>
+        <v>149.0899369770234</v>
       </c>
       <c r="AD4" t="n">
-        <v>89113.54566778954</v>
+        <v>120461.0622900903</v>
       </c>
       <c r="AE4" t="n">
-        <v>121929.0845947895</v>
+        <v>164820.1397922291</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.180264843781665e-06</v>
+        <v>6.411467613614708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>110292.3438896397</v>
+        <v>149089.9369770234</v>
       </c>
     </row>
     <row r="5">
@@ -16629,28 +16629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.190153780918</v>
+        <v>119.5376704032187</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.6656590779975</v>
+        <v>163.5567142754371</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.1494979309411</v>
+        <v>147.9470910183248</v>
       </c>
       <c r="AD5" t="n">
-        <v>88190.153780918</v>
+        <v>119537.6704032187</v>
       </c>
       <c r="AE5" t="n">
-        <v>120665.6590779975</v>
+        <v>163556.7142754371</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.238543558272545e-06</v>
+        <v>6.500852402494102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>109149.4979309411</v>
+        <v>147947.0910183248</v>
       </c>
     </row>
   </sheetData>
@@ -30499,28 +30499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.27469486668703</v>
+        <v>126.530654462572</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.7813319212361</v>
+        <v>173.1248235741226</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.2541311203689</v>
+        <v>156.6020333944726</v>
       </c>
       <c r="AD2" t="n">
-        <v>88274.69486668703</v>
+        <v>126530.654462572</v>
       </c>
       <c r="AE2" t="n">
-        <v>120781.3319212361</v>
+        <v>173124.8235741226</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.063396801651935e-06</v>
+        <v>6.34897735059386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>109254.1311203689</v>
+        <v>156602.0333944726</v>
       </c>
     </row>
     <row r="3">
@@ -30605,28 +30605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.24599336347691</v>
+        <v>115.8337823778215</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.6373289076659</v>
+        <v>158.4888912750841</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.5056259382678</v>
+        <v>143.3629339323896</v>
       </c>
       <c r="AD3" t="n">
-        <v>85245.99336347691</v>
+        <v>115833.7823778215</v>
       </c>
       <c r="AE3" t="n">
-        <v>116637.3289076659</v>
+        <v>158488.8912750841</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.365762586822245e-06</v>
+        <v>6.821417925646825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>105505.6259382678</v>
+        <v>143362.9339323895</v>
       </c>
     </row>
     <row r="4">
@@ -30711,28 +30711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.59004555747717</v>
+        <v>115.1778345718218</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.7398321811227</v>
+        <v>157.5913945485408</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.693785039661</v>
+        <v>142.5510930337827</v>
       </c>
       <c r="AD4" t="n">
-        <v>84590.04555747716</v>
+        <v>115177.8345718218</v>
       </c>
       <c r="AE4" t="n">
-        <v>115739.8321811227</v>
+        <v>157591.3945485408</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.415352330979349e-06</v>
+        <v>6.898900922716469e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>104693.785039661</v>
+        <v>142551.0930337827</v>
       </c>
     </row>
   </sheetData>
@@ -31008,28 +31008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.55856174718542</v>
+        <v>106.6403350378232</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.119045824714</v>
+        <v>145.9100110382329</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.99119303024641</v>
+        <v>131.9845643707702</v>
       </c>
       <c r="AD2" t="n">
-        <v>77558.56174718542</v>
+        <v>106640.3350378232</v>
       </c>
       <c r="AE2" t="n">
-        <v>106119.045824714</v>
+        <v>145910.0110382329</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.70493010528463e-06</v>
+        <v>7.667512300465446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>95991.1930302464</v>
+        <v>131984.5643707702</v>
       </c>
     </row>
   </sheetData>
@@ -31305,28 +31305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.145602777067</v>
+        <v>178.8434357578218</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.7027112213906</v>
+        <v>244.7014788192766</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.8384524662833</v>
+        <v>221.3475131215183</v>
       </c>
       <c r="AD2" t="n">
-        <v>129145.6027770669</v>
+        <v>178843.4357578218</v>
       </c>
       <c r="AE2" t="n">
-        <v>176702.7112213906</v>
+        <v>244701.4788192766</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967347063218701e-06</v>
+        <v>4.383901592285482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159838.4524662833</v>
+        <v>221347.5131215183</v>
       </c>
     </row>
     <row r="3">
@@ -31411,28 +31411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.8398333254363</v>
+        <v>154.1552193209496</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.3924380979024</v>
+        <v>210.9219719231252</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.6574404970287</v>
+        <v>190.7918749536892</v>
       </c>
       <c r="AD3" t="n">
-        <v>112839.8333254363</v>
+        <v>154155.2193209495</v>
       </c>
       <c r="AE3" t="n">
-        <v>154392.4380979024</v>
+        <v>210921.9719231252</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.415120301299028e-06</v>
+        <v>5.04543317911439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>139657.4404970287</v>
+        <v>190791.8749536892</v>
       </c>
     </row>
     <row r="4">
@@ -31517,28 +31517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.1186662602326</v>
+        <v>143.5193036017664</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.7232643347887</v>
+        <v>196.3694428126607</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.3882720895471</v>
+        <v>177.6282187969199</v>
       </c>
       <c r="AD4" t="n">
-        <v>102118.6662602326</v>
+        <v>143519.3036017664</v>
       </c>
       <c r="AE4" t="n">
-        <v>139723.2643347887</v>
+        <v>196369.4428126607</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.563549202353915e-06</v>
+        <v>5.264719188405763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>126388.2720895471</v>
+        <v>177628.2187969199</v>
       </c>
     </row>
     <row r="5">
@@ -31623,28 +31623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.4561755614576</v>
+        <v>141.8568129029914</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.4485712168126</v>
+        <v>194.0947496946846</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.3306724901981</v>
+        <v>175.5706191975709</v>
       </c>
       <c r="AD5" t="n">
-        <v>100456.1755614576</v>
+        <v>141856.8129029914</v>
       </c>
       <c r="AE5" t="n">
-        <v>137448.5712168126</v>
+        <v>194094.7496946846</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66886995848475e-06</v>
+        <v>5.420318051857163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>124330.6724901981</v>
+        <v>175570.6191975709</v>
       </c>
     </row>
     <row r="6">
@@ -31729,28 +31729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.76757931020572</v>
+        <v>141.1682166517395</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.5064034471277</v>
+        <v>193.1525819249997</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.4784238901109</v>
+        <v>174.7183705974836</v>
       </c>
       <c r="AD6" t="n">
-        <v>99767.57931020572</v>
+        <v>141168.2166517395</v>
       </c>
       <c r="AE6" t="n">
-        <v>136506.4034471277</v>
+        <v>193152.5819249997</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.693956880059627e-06</v>
+        <v>5.457380988242619e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>123478.4238901109</v>
+        <v>174718.3705974836</v>
       </c>
     </row>
     <row r="7">
@@ -31835,28 +31835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.74445339794211</v>
+        <v>132.0185768093981</v>
       </c>
       <c r="AB7" t="n">
-        <v>135.1065174368397</v>
+        <v>180.633641039093</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.212141035892</v>
+        <v>163.39421985928</v>
       </c>
       <c r="AD7" t="n">
-        <v>98744.45339794211</v>
+        <v>132018.5768093981</v>
       </c>
       <c r="AE7" t="n">
-        <v>135106.5174368397</v>
+        <v>180633.641039093</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.751811900374602e-06</v>
+        <v>5.542854884715453e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>122212.141035892</v>
+        <v>163394.21985928</v>
       </c>
     </row>
     <row r="8">
@@ -31941,28 +31941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.32605452817701</v>
+        <v>131.600177939633</v>
       </c>
       <c r="AB8" t="n">
-        <v>134.534045644772</v>
+        <v>180.0611692470253</v>
       </c>
       <c r="AC8" t="n">
-        <v>121.6943051481898</v>
+        <v>162.8763839715779</v>
       </c>
       <c r="AD8" t="n">
-        <v>98326.05452817702</v>
+        <v>131600.177939633</v>
       </c>
       <c r="AE8" t="n">
-        <v>134534.045644772</v>
+        <v>180061.1692470253</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.748636029046674e-06</v>
+        <v>5.538162913377158e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.5546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>121694.3051481898</v>
+        <v>162876.3839715779</v>
       </c>
     </row>
     <row r="9">
@@ -32047,28 +32047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.51053098818221</v>
+        <v>130.614062199046</v>
       </c>
       <c r="AB9" t="n">
-        <v>133.4182103589923</v>
+        <v>178.7119221863988</v>
       </c>
       <c r="AC9" t="n">
-        <v>120.6849636159999</v>
+        <v>161.655907156737</v>
       </c>
       <c r="AD9" t="n">
-        <v>97510.53098818222</v>
+        <v>130614.062199046</v>
       </c>
       <c r="AE9" t="n">
-        <v>133418.2103589923</v>
+        <v>178711.9221863988</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.782388894090005e-06</v>
+        <v>5.588028748298118e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>120684.9636159999</v>
+        <v>161655.907156737</v>
       </c>
     </row>
     <row r="10">
@@ -32153,28 +32153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.08281034043516</v>
+        <v>130.1863415512989</v>
       </c>
       <c r="AB10" t="n">
-        <v>132.8329840990418</v>
+        <v>178.1266959264483</v>
       </c>
       <c r="AC10" t="n">
-        <v>120.1555905289287</v>
+        <v>161.1265340696658</v>
       </c>
       <c r="AD10" t="n">
-        <v>97082.81034043516</v>
+        <v>130186.3415512989</v>
       </c>
       <c r="AE10" t="n">
-        <v>132832.9840990418</v>
+        <v>178126.6959264483</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.776751107003994e-06</v>
+        <v>5.579699589875872e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>120155.5905289287</v>
+        <v>161126.5340696658</v>
       </c>
     </row>
   </sheetData>
@@ -32450,28 +32450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3422171798597</v>
+        <v>210.8744153556622</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.0730982927923</v>
+        <v>288.5276782121076</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.310332420706</v>
+        <v>260.9910015547687</v>
       </c>
       <c r="AD2" t="n">
-        <v>151342.2171798598</v>
+        <v>210874.4153556622</v>
       </c>
       <c r="AE2" t="n">
-        <v>207073.0982927923</v>
+        <v>288527.6782121076</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.576428802134067e-06</v>
+        <v>3.741410077432754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>187310.332420706</v>
+        <v>260991.0015547687</v>
       </c>
     </row>
     <row r="3">
@@ -32556,28 +32556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.4663301329506</v>
+        <v>173.0259929904626</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.5097886560883</v>
+        <v>236.7417969775181</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.4730649668631</v>
+        <v>214.1474921432511</v>
       </c>
       <c r="AD3" t="n">
-        <v>130466.3301329506</v>
+        <v>173025.9929904626</v>
       </c>
       <c r="AE3" t="n">
-        <v>178509.7886560883</v>
+        <v>236741.7969775181</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.082789667621029e-06</v>
+        <v>4.47673163701991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>161473.0649668631</v>
+        <v>214147.4921432511</v>
       </c>
     </row>
     <row r="4">
@@ -32662,28 +32662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.7386752412268</v>
+        <v>161.3835894447594</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.4634938456215</v>
+        <v>220.8121468197004</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.9582060119858</v>
+        <v>199.7381454390861</v>
       </c>
       <c r="AD4" t="n">
-        <v>118738.6752412268</v>
+        <v>161383.5894447594</v>
       </c>
       <c r="AE4" t="n">
-        <v>162463.4938456214</v>
+        <v>220812.1468197004</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.24897491231444e-06</v>
+        <v>4.718060700218374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>146958.2060119858</v>
+        <v>199738.1454390861</v>
       </c>
     </row>
     <row r="5">
@@ -32768,28 +32768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.7401129400425</v>
+        <v>150.8561338114197</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.7289727347966</v>
+        <v>206.4080175836082</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.4846637580527</v>
+        <v>186.7087260809595</v>
       </c>
       <c r="AD5" t="n">
-        <v>116740.1129400425</v>
+        <v>150856.1338114197</v>
       </c>
       <c r="AE5" t="n">
-        <v>159728.9727347966</v>
+        <v>206408.0175836082</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.357677380720608e-06</v>
+        <v>4.875915056760181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>144484.6637580527</v>
+        <v>186708.7260809595</v>
       </c>
     </row>
     <row r="6">
@@ -32874,28 +32874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.8720321820133</v>
+        <v>149.9880530533904</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.5412263446414</v>
+        <v>205.220271193453</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.410274216361</v>
+        <v>185.6343365392678</v>
       </c>
       <c r="AD6" t="n">
-        <v>115872.0321820133</v>
+        <v>149988.0530533904</v>
       </c>
       <c r="AE6" t="n">
-        <v>158541.2263446414</v>
+        <v>205220.271193453</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.405741806951708e-06</v>
+        <v>4.945712727286962e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>143410.2742163611</v>
+        <v>185634.3365392678</v>
       </c>
     </row>
     <row r="7">
@@ -32980,28 +32980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>106.3342151942314</v>
+        <v>148.8937885431924</v>
       </c>
       <c r="AB7" t="n">
-        <v>145.4911643631764</v>
+        <v>203.7230502150578</v>
       </c>
       <c r="AC7" t="n">
-        <v>131.6056918345259</v>
+        <v>184.2800082296874</v>
       </c>
       <c r="AD7" t="n">
-        <v>106334.2151942315</v>
+        <v>148893.7885431924</v>
       </c>
       <c r="AE7" t="n">
-        <v>145491.1643631764</v>
+        <v>203723.0502150578</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.436843713560281e-06</v>
+        <v>4.990877952390914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>131605.6918345259</v>
+        <v>184280.0082296874</v>
       </c>
     </row>
     <row r="8">
@@ -33086,28 +33086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.7322327364241</v>
+        <v>148.2918060853851</v>
       </c>
       <c r="AB8" t="n">
-        <v>144.6675054068131</v>
+        <v>202.8993912586945</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.8606417329451</v>
+        <v>183.5349581281066</v>
       </c>
       <c r="AD8" t="n">
-        <v>105732.2327364241</v>
+        <v>148291.8060853851</v>
       </c>
       <c r="AE8" t="n">
-        <v>144667.5054068131</v>
+        <v>202899.3912586945</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.463746506919644e-06</v>
+        <v>5.029945355341244e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>130860.6417329451</v>
+        <v>183534.9581281065</v>
       </c>
     </row>
     <row r="9">
@@ -33192,28 +33192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.1580722084227</v>
+        <v>147.7176455573837</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.8819136422272</v>
+        <v>202.1137994941085</v>
       </c>
       <c r="AC9" t="n">
-        <v>130.150025743786</v>
+        <v>182.8243421389475</v>
       </c>
       <c r="AD9" t="n">
-        <v>105158.0722084227</v>
+        <v>147717.6455573837</v>
       </c>
       <c r="AE9" t="n">
-        <v>143881.9136422272</v>
+        <v>202113.7994941085</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.488798843592911e-06</v>
+        <v>5.066325582427265e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>130150.025743786</v>
+        <v>182824.3421389475</v>
       </c>
     </row>
     <row r="10">
@@ -33298,28 +33298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>104.5905354056737</v>
+        <v>147.1501087546347</v>
       </c>
       <c r="AB10" t="n">
-        <v>143.1053847507498</v>
+        <v>201.3372706026312</v>
       </c>
       <c r="AC10" t="n">
-        <v>129.4476076798458</v>
+        <v>182.1219240750073</v>
       </c>
       <c r="AD10" t="n">
-        <v>104590.5354056737</v>
+        <v>147150.1087546347</v>
       </c>
       <c r="AE10" t="n">
-        <v>143105.3847507498</v>
+        <v>201337.2706026311</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.51695899854667e-06</v>
+        <v>5.10721888692642e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>129447.6076798458</v>
+        <v>182121.9240750073</v>
       </c>
     </row>
     <row r="11">
@@ -33404,28 +33404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>103.9553456136645</v>
+        <v>146.5149189626255</v>
       </c>
       <c r="AB11" t="n">
-        <v>142.2362900547273</v>
+        <v>200.4681759066087</v>
       </c>
       <c r="AC11" t="n">
-        <v>128.6614581618294</v>
+        <v>181.3357745569909</v>
       </c>
       <c r="AD11" t="n">
-        <v>103955.3456136645</v>
+        <v>146514.9189626255</v>
       </c>
       <c r="AE11" t="n">
-        <v>142236.2900547273</v>
+        <v>200468.1759066087</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.519426274128128e-06</v>
+        <v>5.11080178807883e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>128661.4581618294</v>
+        <v>181335.7745569909</v>
       </c>
     </row>
     <row r="12">
@@ -33510,28 +33510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.1907703983606</v>
+        <v>145.7503437473216</v>
       </c>
       <c r="AB12" t="n">
-        <v>141.1901645144712</v>
+        <v>199.4220503663526</v>
       </c>
       <c r="AC12" t="n">
-        <v>127.7151733748886</v>
+        <v>180.38948977005</v>
       </c>
       <c r="AD12" t="n">
-        <v>103190.7703983606</v>
+        <v>145750.3437473216</v>
       </c>
       <c r="AE12" t="n">
-        <v>141190.1645144712</v>
+        <v>199422.0503663525</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.549247095338637e-06</v>
+        <v>5.154106660661338e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>127715.1733748886</v>
+        <v>180389.48977005</v>
       </c>
     </row>
     <row r="13">
@@ -33616,28 +33616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>103.0389597922508</v>
+        <v>145.5985331412118</v>
       </c>
       <c r="AB13" t="n">
-        <v>140.9824505457806</v>
+        <v>199.214336397662</v>
       </c>
       <c r="AC13" t="n">
-        <v>127.5272833358414</v>
+        <v>180.2015997310028</v>
       </c>
       <c r="AD13" t="n">
-        <v>103038.9597922508</v>
+        <v>145598.5331412118</v>
       </c>
       <c r="AE13" t="n">
-        <v>140982.4505457806</v>
+        <v>199214.336397662</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.54910475251663e-06</v>
+        <v>5.153899954825623e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>127527.2833358414</v>
+        <v>180201.5997310028</v>
       </c>
     </row>
     <row r="14">
@@ -33722,28 +33722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>102.9357811891819</v>
+        <v>145.4953545381429</v>
       </c>
       <c r="AB14" t="n">
-        <v>140.8412770291431</v>
+        <v>199.0731628810245</v>
       </c>
       <c r="AC14" t="n">
-        <v>127.3995832214934</v>
+        <v>180.0738996166548</v>
       </c>
       <c r="AD14" t="n">
-        <v>102935.7811891819</v>
+        <v>145495.3545381429</v>
       </c>
       <c r="AE14" t="n">
-        <v>140841.2770291431</v>
+        <v>199073.1628810245</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.549840190430334e-06</v>
+        <v>5.154967934976823e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>127399.5832214934</v>
+        <v>180073.8996166548</v>
       </c>
     </row>
   </sheetData>
@@ -34019,28 +34019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.34153629061291</v>
+        <v>102.7189408256364</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7173696698871</v>
+        <v>140.5445864774185</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.00960666984352</v>
+        <v>127.1312083996175</v>
       </c>
       <c r="AD2" t="n">
-        <v>74341.5362906129</v>
+        <v>102718.9408256364</v>
       </c>
       <c r="AE2" t="n">
-        <v>101717.3696698871</v>
+        <v>140544.5864774185</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.730643147308054e-06</v>
+        <v>7.885700279376717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>92009.60666984352</v>
+        <v>127131.2083996175</v>
       </c>
     </row>
   </sheetData>
@@ -34316,28 +34316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.4173455757302</v>
+        <v>145.130050454809</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.2366629017108</v>
+        <v>198.5733377181284</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.4709182318383</v>
+        <v>179.6217770657965</v>
       </c>
       <c r="AD2" t="n">
-        <v>105417.3455757302</v>
+        <v>145130.050454809</v>
       </c>
       <c r="AE2" t="n">
-        <v>144236.6629017108</v>
+        <v>198573.3377181284</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.580941312757586e-06</v>
+        <v>5.449858295883077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>130470.9182318384</v>
+        <v>179621.7770657965</v>
       </c>
     </row>
     <row r="3">
@@ -34422,28 +34422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.22470367935531</v>
+        <v>132.8520677038625</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.5541523577018</v>
+        <v>181.7740600519218</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.3805630800937</v>
+        <v>164.425798882113</v>
       </c>
       <c r="AD3" t="n">
-        <v>93224.70367935531</v>
+        <v>132852.0677038625</v>
       </c>
       <c r="AE3" t="n">
-        <v>127554.1523577018</v>
+        <v>181774.0600519218</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.928208017763358e-06</v>
+        <v>5.978365793734888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.658854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>115380.5630800937</v>
+        <v>164425.798882113</v>
       </c>
     </row>
     <row r="4">
@@ -34528,28 +34528,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.19024268750148</v>
+        <v>122.875155244744</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.7705130745643</v>
+        <v>168.1232082750492</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.8625904232757</v>
+        <v>152.0777652397299</v>
       </c>
       <c r="AD4" t="n">
-        <v>91190.24268750148</v>
+        <v>122875.155244744</v>
       </c>
       <c r="AE4" t="n">
-        <v>124770.5130745643</v>
+        <v>168123.2082750492</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.085498331820596e-06</v>
+        <v>6.217746964231306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>112862.5904232757</v>
+        <v>152077.7652397299</v>
       </c>
     </row>
     <row r="5">
@@ -34634,28 +34634,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.28134904289837</v>
+        <v>121.9662616001408</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.5269246924613</v>
+        <v>166.8796198929462</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.7376883709729</v>
+        <v>150.9528631874272</v>
       </c>
       <c r="AD5" t="n">
-        <v>90281.34904289836</v>
+        <v>121966.2616001408</v>
       </c>
       <c r="AE5" t="n">
-        <v>123526.9246924613</v>
+        <v>166879.6198929462</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.135454989707214e-06</v>
+        <v>6.293776332668043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.229166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>111737.6883709729</v>
+        <v>150952.8631874272</v>
       </c>
     </row>
     <row r="6">
@@ -34740,28 +34740,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.73788006281104</v>
+        <v>121.4227926200535</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.783326457747</v>
+        <v>166.1360216582318</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.0650581081328</v>
+        <v>150.2802329245871</v>
       </c>
       <c r="AD6" t="n">
-        <v>89737.88006281105</v>
+        <v>121422.7926200535</v>
       </c>
       <c r="AE6" t="n">
-        <v>122783.326457747</v>
+        <v>166136.0216582319</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.16307224252424e-06</v>
+        <v>6.335807212604042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>111065.0581081328</v>
+        <v>150280.2329245871</v>
       </c>
     </row>
   </sheetData>
@@ -35037,28 +35037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.8637901643963</v>
+        <v>163.6096445835311</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.1076580707256</v>
+        <v>223.857933667188</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.0636991250821</v>
+        <v>202.4932466646391</v>
       </c>
       <c r="AD2" t="n">
-        <v>122863.7901643963</v>
+        <v>163609.6445835311</v>
       </c>
       <c r="AE2" t="n">
-        <v>168107.6580707256</v>
+        <v>223857.933667188</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189758313858567e-06</v>
+        <v>4.762024298102971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>152063.6991250821</v>
+        <v>202493.2466646391</v>
       </c>
     </row>
     <row r="3">
@@ -35143,28 +35143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.1578899211211</v>
+        <v>140.8228640417965</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.9863965793564</v>
+        <v>192.6800552481941</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.8627825900749</v>
+        <v>174.2909412035168</v>
       </c>
       <c r="AD3" t="n">
-        <v>108157.8899211211</v>
+        <v>140822.8640417965</v>
       </c>
       <c r="AE3" t="n">
-        <v>147986.3965793564</v>
+        <v>192680.0552481941</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.615617877231976e-06</v>
+        <v>5.397794594414398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>133862.7825900749</v>
+        <v>174290.9412035168</v>
       </c>
     </row>
     <row r="4">
@@ -35249,28 +35249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.6847048883149</v>
+        <v>138.4304697988987</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.6565227731639</v>
+        <v>189.4066759000779</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.9005318278366</v>
+        <v>171.3299685861671</v>
       </c>
       <c r="AD4" t="n">
-        <v>97684.7048883149</v>
+        <v>138430.4697988987</v>
       </c>
       <c r="AE4" t="n">
-        <v>133656.5227731639</v>
+        <v>189406.6759000779</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.7728656845831e-06</v>
+        <v>5.632551527620301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>120900.5318278366</v>
+        <v>171329.9685861671</v>
       </c>
     </row>
     <row r="5">
@@ -35355,28 +35355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.93457349066227</v>
+        <v>137.680338401246</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.6301599014344</v>
+        <v>188.3803130283484</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.9721235880754</v>
+        <v>170.4015603464058</v>
       </c>
       <c r="AD5" t="n">
-        <v>96934.57349066227</v>
+        <v>137680.3384012461</v>
       </c>
       <c r="AE5" t="n">
-        <v>132630.1599014344</v>
+        <v>188380.3130283484</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.812410325945438e-06</v>
+        <v>5.691588145601373e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>119972.1235880754</v>
+        <v>170401.5603464058</v>
       </c>
     </row>
     <row r="6">
@@ -35461,28 +35461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.88174207908288</v>
+        <v>128.4613753451866</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.1896295164684</v>
+        <v>175.7665210631085</v>
       </c>
       <c r="AC6" t="n">
-        <v>118.669075401253</v>
+        <v>158.9916109827562</v>
       </c>
       <c r="AD6" t="n">
-        <v>95881.74207908288</v>
+        <v>128461.3753451866</v>
       </c>
       <c r="AE6" t="n">
-        <v>131189.6295164684</v>
+        <v>175766.5210631085</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.87207946672881e-06</v>
+        <v>5.780668843979936e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>118669.075401253</v>
+        <v>158991.6109827562</v>
       </c>
     </row>
     <row r="7">
@@ -35567,28 +35567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.94050840009783</v>
+        <v>127.5201416662016</v>
       </c>
       <c r="AB7" t="n">
-        <v>129.9017920725825</v>
+        <v>174.4786836192226</v>
       </c>
       <c r="AC7" t="n">
-        <v>117.5041473555199</v>
+        <v>157.8266829370231</v>
       </c>
       <c r="AD7" t="n">
-        <v>94940.50840009782</v>
+        <v>127520.1416662016</v>
       </c>
       <c r="AE7" t="n">
-        <v>129901.7920725825</v>
+        <v>174478.6836192225</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.903297596455693e-06</v>
+        <v>5.827274723696546e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>117504.1473555199</v>
+        <v>157826.6829370231</v>
       </c>
     </row>
     <row r="8">
@@ -35673,28 +35673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.47630070950636</v>
+        <v>127.0559339756101</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.2666426309176</v>
+        <v>173.8435341775577</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.9296156851295</v>
+        <v>157.2521512666327</v>
       </c>
       <c r="AD8" t="n">
-        <v>94476.30070950637</v>
+        <v>127055.9339756101</v>
       </c>
       <c r="AE8" t="n">
-        <v>129266.6426309176</v>
+        <v>173843.5341775577</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.929887091315738e-06</v>
+        <v>5.866970464921731e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>116929.6156851295</v>
+        <v>157252.1512666327</v>
       </c>
     </row>
     <row r="9">
@@ -35779,28 +35779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.59513958929253</v>
+        <v>127.1747728553963</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.4292432290423</v>
+        <v>174.0061347756824</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.0766979103806</v>
+        <v>157.3992334918838</v>
       </c>
       <c r="AD9" t="n">
-        <v>94595.13958929254</v>
+        <v>127174.7728553963</v>
       </c>
       <c r="AE9" t="n">
-        <v>129429.2432290423</v>
+        <v>174006.1347756824</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.928352598234884e-06</v>
+        <v>5.864679603791422e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>117076.6979103806</v>
+        <v>157399.2334918838</v>
       </c>
     </row>
   </sheetData>
